--- a/pizzaria.xlsx
+++ b/pizzaria.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b410e2d07fa8e94b/faculdade/6 periodo/APS II/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geova\controle_versao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FE4A110-F3D4-4945-8903-69752D547DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801BC917-FAD1-4240-834F-17EDBF236BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{8DE92000-244E-4DEE-940A-A395368BDA0B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
   <si>
     <t>Como um</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>de modo que consiga saber a localização exata da entrega</t>
+  </si>
+  <si>
+    <t>TOTAL HRS</t>
   </si>
 </sst>
 </file>
@@ -530,7 +533,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,7 +734,9 @@
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>

--- a/pizzaria.xlsx
+++ b/pizzaria.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geova\controle_versao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801BC917-FAD1-4240-834F-17EDBF236BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D24B9D-0993-4EF9-BD31-BDBA4EEF49A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{8DE92000-244E-4DEE-940A-A395368BDA0B}"/>
   </bookViews>
@@ -168,7 +168,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +178,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -205,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -216,6 +224,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56AC3311-C738-4852-A9ED-419A1D30D23B}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,11 +743,17 @@
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G13" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
